--- a/kelapaKecamatan.xlsx
+++ b/kelapaKecamatan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800"/>
+    <workbookView windowWidth="19200" windowHeight="6350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Kecamatan</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>KK</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longtitude</t>
   </si>
   <si>
     <t>BANGGAE</t>
@@ -1284,10 +1278,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
@@ -1299,7 +1293,7 @@
     <col min="10" max="10" width="10.5454545454545"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1324,17 +1318,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>91</v>
@@ -1357,17 +1345,11 @@
       <c r="H2" s="1">
         <v>559</v>
       </c>
-      <c r="I2" s="1">
-        <v>-3.54325</v>
-      </c>
-      <c r="J2" s="1">
-        <v>118.96761</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>216</v>
@@ -1390,17 +1372,11 @@
       <c r="H3" s="1">
         <v>1082</v>
       </c>
-      <c r="I3" s="1">
-        <v>-3.54432</v>
-      </c>
-      <c r="J3" s="1">
-        <v>118.97249</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>98.75</v>
@@ -1423,17 +1399,11 @@
       <c r="H4" s="1">
         <v>2045</v>
       </c>
-      <c r="I4" s="1">
-        <v>-3.49447</v>
-      </c>
-      <c r="J4" s="1">
-        <v>118.89638</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>124.5</v>
@@ -1456,17 +1426,11 @@
       <c r="H5" s="1">
         <v>1116</v>
       </c>
-      <c r="I5" s="1">
-        <v>-3.37548</v>
-      </c>
-      <c r="J5" s="1">
-        <v>118.84815</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>66</v>
@@ -1489,17 +1453,11 @@
       <c r="H6" s="1">
         <v>702</v>
       </c>
-      <c r="I6" s="1">
-        <v>-3.23481</v>
-      </c>
-      <c r="J6" s="1">
-        <v>118.87133</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>65</v>
@@ -1522,17 +1480,11 @@
       <c r="H7" s="1">
         <v>198</v>
       </c>
-      <c r="I7" s="1">
-        <v>-3.16127</v>
-      </c>
-      <c r="J7" s="1">
-        <v>118.81919</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>117</v>
@@ -1555,17 +1507,11 @@
       <c r="H8" s="1">
         <v>2450</v>
       </c>
-      <c r="I8" s="1">
-        <v>-3.01445</v>
-      </c>
-      <c r="J8" s="1">
-        <v>118.85802</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>5</v>
@@ -1588,17 +1534,11 @@
       <c r="H9" s="1">
         <v>459</v>
       </c>
-      <c r="I9" s="1">
-        <v>-3.08402</v>
-      </c>
-      <c r="J9" s="1">
-        <v>118.83737</v>
-      </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1621,17 +1561,11 @@
       <c r="H10" s="1">
         <v>394</v>
       </c>
-      <c r="I10" s="1">
-        <v>-3.40835</v>
-      </c>
-      <c r="J10" s="1">
-        <v>119.30723</v>
-      </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>66</v>
@@ -1654,17 +1588,11 @@
       <c r="H11" s="1">
         <v>3262</v>
       </c>
-      <c r="I11" s="1">
-        <v>-3.43654</v>
-      </c>
-      <c r="J11" s="1">
-        <v>119.40618</v>
-      </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1">
         <v>61.5</v>
@@ -1687,17 +1615,11 @@
       <c r="H12" s="1">
         <v>845</v>
       </c>
-      <c r="I12" s="1">
-        <v>-3.38349</v>
-      </c>
-      <c r="J12" s="1">
-        <v>119.35197</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1">
         <v>14.2</v>
@@ -1720,17 +1642,11 @@
       <c r="H13" s="1">
         <v>843</v>
       </c>
-      <c r="I13" s="1">
-        <v>-3.38911</v>
-      </c>
-      <c r="J13" s="1">
-        <v>119.26969</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>19.05</v>
@@ -1753,17 +1669,11 @@
       <c r="H14" s="1">
         <v>1669</v>
       </c>
-      <c r="I14" s="1">
-        <v>-3.39848</v>
-      </c>
-      <c r="J14" s="1">
-        <v>119.21107</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>312.72</v>
@@ -1786,17 +1696,11 @@
       <c r="H15" s="1">
         <v>2150</v>
       </c>
-      <c r="I15" s="1">
-        <v>-3.35269</v>
-      </c>
-      <c r="J15" s="1">
-        <v>119.20218</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>43.8</v>
@@ -1819,17 +1723,11 @@
       <c r="H16" s="1">
         <v>205</v>
       </c>
-      <c r="I16" s="1">
-        <v>-3.12942</v>
-      </c>
-      <c r="J16" s="1">
-        <v>119.22099</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>86.5</v>
@@ -1852,17 +1750,11 @@
       <c r="H17" s="1">
         <v>261</v>
       </c>
-      <c r="I17" s="1">
-        <v>-3.23015</v>
-      </c>
-      <c r="J17" s="1">
-        <v>119.15154</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1">
         <v>125</v>
@@ -1885,17 +1777,11 @@
       <c r="H18" s="1">
         <v>2140</v>
       </c>
-      <c r="I18" s="1">
-        <v>-3.40322</v>
-      </c>
-      <c r="J18" s="1">
-        <v>119.18384</v>
-      </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1">
         <v>90.5</v>
@@ -1918,17 +1804,11 @@
       <c r="H19" s="1">
         <v>1145</v>
       </c>
-      <c r="I19" s="1">
-        <v>-3.41914</v>
-      </c>
-      <c r="J19" s="1">
-        <v>119.16405</v>
-      </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1">
         <v>55.75</v>
@@ -1951,17 +1831,11 @@
       <c r="H20" s="1">
         <v>563</v>
       </c>
-      <c r="I20" s="1">
-        <v>-3.22142</v>
-      </c>
-      <c r="J20" s="1">
-        <v>118.92219</v>
-      </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1">
         <v>297</v>
@@ -1984,17 +1858,11 @@
       <c r="H21" s="1">
         <v>4046</v>
       </c>
-      <c r="I21" s="1">
-        <v>-3.47668</v>
-      </c>
-      <c r="J21" s="1">
-        <v>119.14076</v>
-      </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1">
         <v>151.25</v>
@@ -2017,17 +1885,11 @@
       <c r="H22" s="1">
         <v>1121</v>
       </c>
-      <c r="I22" s="1">
-        <v>-3.50237</v>
-      </c>
-      <c r="J22" s="1">
-        <v>119.07752</v>
-      </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1">
         <v>33</v>
@@ -2050,17 +1912,11 @@
       <c r="H23" s="1">
         <v>3667</v>
       </c>
-      <c r="I23" s="1">
-        <v>-3.50489</v>
-      </c>
-      <c r="J23" s="1">
-        <v>119.02165</v>
-      </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1">
         <v>225</v>
@@ -2083,17 +1939,11 @@
       <c r="H24" s="1">
         <v>2052</v>
       </c>
-      <c r="I24" s="1">
-        <v>-3.47806</v>
-      </c>
-      <c r="J24" s="1">
-        <v>119.02165</v>
-      </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>187</v>
@@ -2116,13 +1966,7 @@
       <c r="H25" s="1">
         <v>734</v>
       </c>
-      <c r="I25" s="1">
-        <v>-3.40495</v>
-      </c>
-      <c r="J25" s="1">
-        <v>118.98197</v>
-      </c>
-      <c r="K25" s="1"/>
+      <c r="I25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
